--- a/flag_list.xlsx
+++ b/flag_list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nono\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nono\Documents\GitHub\kitctf2nd\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>練習問題</t>
     <rPh sb="0" eb="2">
@@ -188,12 +188,25 @@
     <t>kitctf{FL@g}</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>kitctf{cocoa-san}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kitctf{flag_is_sharo_is_my_best!}</t>
+  </si>
+  <si>
+    <t>kitctf{upx_is_so_famous_packer!!}</t>
+  </si>
+  <si>
+    <t>kitctf{RnonowasanSAnonowasan}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,6 +243,12 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -253,7 +272,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -270,6 +289,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -554,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -648,6 +670,9 @@
       <c r="D8" s="2">
         <v>150</v>
       </c>
+      <c r="E8" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C9" s="2" t="s">
@@ -714,6 +739,9 @@
       <c r="D14" s="2">
         <v>500</v>
       </c>
+      <c r="E14" s="6" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C15" s="2" t="s">
@@ -722,6 +750,9 @@
       <c r="D15" s="2">
         <v>300</v>
       </c>
+      <c r="E15" s="6" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C16" s="2" t="s">
@@ -808,10 +839,13 @@
       <c r="D22" s="2">
         <v>150</v>
       </c>
+      <c r="E22" s="6" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>